--- a/modelos/OBAOLE4423099/OBAOLE4423099_Sell Out_metricas.xlsx
+++ b/modelos/OBAOLE4423099/OBAOLE4423099_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45014</v>
       </c>
       <c r="B2" t="n">
-        <v>108.602033647355</v>
+        <v>119.0927585142952</v>
       </c>
       <c r="C2" t="n">
-        <v>55.52023590069135</v>
+        <v>62.9708953357014</v>
       </c>
       <c r="D2" t="n">
-        <v>159.4410979253402</v>
+        <v>172.5007307635725</v>
       </c>
       <c r="E2" t="n">
         <v>79</v>
@@ -496,13 +496,13 @@
         <v>45023</v>
       </c>
       <c r="B3" t="n">
-        <v>92.56009067383745</v>
+        <v>103.4078789971963</v>
       </c>
       <c r="C3" t="n">
-        <v>41.18388726864529</v>
+        <v>48.25837395675769</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4764646531256</v>
+        <v>154.5653277138217</v>
       </c>
       <c r="E3" t="n">
         <v>199</v>
@@ -516,13 +516,13 @@
         <v>45026</v>
       </c>
       <c r="B4" t="n">
-        <v>102.034702836897</v>
+        <v>117.1583771860622</v>
       </c>
       <c r="C4" t="n">
-        <v>50.65797017248142</v>
+        <v>64.9835381574772</v>
       </c>
       <c r="D4" t="n">
-        <v>156.4515646158251</v>
+        <v>170.327974987928</v>
       </c>
       <c r="E4" t="n">
         <v>208</v>
@@ -536,13 +536,13 @@
         <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>128.9487686734674</v>
+        <v>136.624758087388</v>
       </c>
       <c r="C5" t="n">
-        <v>73.63022018152634</v>
+        <v>79.14007076978915</v>
       </c>
       <c r="D5" t="n">
-        <v>180.2221013750395</v>
+        <v>196.8605508323223</v>
       </c>
       <c r="E5" t="n">
         <v>190</v>
@@ -556,13 +556,13 @@
         <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>139.5653672977225</v>
+        <v>144.3642521701417</v>
       </c>
       <c r="C6" t="n">
-        <v>83.7920402992128</v>
+        <v>87.92388186783934</v>
       </c>
       <c r="D6" t="n">
-        <v>189.8257855511222</v>
+        <v>201.9241338737828</v>
       </c>
       <c r="E6" t="n">
         <v>113</v>
@@ -576,13 +576,13 @@
         <v>45059</v>
       </c>
       <c r="B7" t="n">
-        <v>163.7396671986997</v>
+        <v>174.1878321810639</v>
       </c>
       <c r="C7" t="n">
-        <v>109.4634243391714</v>
+        <v>117.2740569262807</v>
       </c>
       <c r="D7" t="n">
-        <v>219.5318802421776</v>
+        <v>232.7450573597614</v>
       </c>
       <c r="E7" t="n">
         <v>218</v>
@@ -596,13 +596,13 @@
         <v>45063</v>
       </c>
       <c r="B8" t="n">
-        <v>118.7158076235454</v>
+        <v>124.7555234376701</v>
       </c>
       <c r="C8" t="n">
-        <v>59.64848594660183</v>
+        <v>70.54599892130359</v>
       </c>
       <c r="D8" t="n">
-        <v>168.2924631808335</v>
+        <v>183.8802590837509</v>
       </c>
       <c r="E8" t="n">
         <v>49</v>
@@ -677,22 +677,22 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>876.2803960591351</v>
+        <v>1607.429285285594</v>
       </c>
       <c r="C2" t="n">
-        <v>29.60203364735496</v>
+        <v>40.09275851429524</v>
       </c>
       <c r="D2" t="n">
-        <v>29.60203364735496</v>
+        <v>40.09275851429524</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3747092866753792</v>
+        <v>0.5075032723328512</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3747092866753792</v>
+        <v>0.5075032723328512</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3155832916289106</v>
+        <v>0.404787724851658</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -703,22 +703,22 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2944.18371570786</v>
+        <v>1919.506048994618</v>
       </c>
       <c r="C3" t="n">
-        <v>54.26033280130025</v>
+        <v>43.81216781893608</v>
       </c>
       <c r="D3" t="n">
-        <v>54.26033280130025</v>
+        <v>43.81216781893608</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2489006091802764</v>
+        <v>0.2009732468758536</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2489006091802764</v>
+        <v>0.2009732468758536</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2842792482084768</v>
+        <v>0.2234244115901537</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -729,22 +729,22 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>11329.4542973617</v>
+        <v>9137.853597814657</v>
       </c>
       <c r="C4" t="n">
-        <v>106.4399093261625</v>
+        <v>95.59212100280367</v>
       </c>
       <c r="D4" t="n">
-        <v>106.4399093261625</v>
+        <v>95.59212100280367</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5348739162118721</v>
+        <v>0.4803624170995159</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5348739162118721</v>
+        <v>0.4803624170995159</v>
       </c>
       <c r="G4" t="n">
-        <v>0.730140459760213</v>
+        <v>0.6322065504364052</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -755,25 +755,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>5130.477405404154</v>
+        <v>4455.933132551805</v>
       </c>
       <c r="C5" t="n">
-        <v>71.62735095900275</v>
+        <v>66.75277621606314</v>
       </c>
       <c r="D5" t="n">
-        <v>65.82442585272588</v>
+        <v>62.8341600835904</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6221585360861392</v>
+        <v>0.6353129353398677</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4153854070965126</v>
+        <v>0.3588304485383538</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5270297754394242</v>
+        <v>0.5003237114747296</v>
       </c>
       <c r="H5" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAOLE4423099/OBAOLE4423099_Sell Out_metricas.xlsx
+++ b/modelos/OBAOLE4423099/OBAOLE4423099_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,141 +473,61 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45014</v>
+        <v>45040</v>
       </c>
       <c r="B2" t="n">
-        <v>119.0927585142952</v>
+        <v>133.8789290605691</v>
       </c>
       <c r="C2" t="n">
-        <v>62.9708953357014</v>
+        <v>69.29066618137648</v>
       </c>
       <c r="D2" t="n">
-        <v>172.5007307635725</v>
+        <v>196.2002975015353</v>
       </c>
       <c r="E2" t="n">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45012</v>
+        <v>45033</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45023</v>
+        <v>45059</v>
       </c>
       <c r="B3" t="n">
-        <v>103.4078789971963</v>
+        <v>111.8920531769793</v>
       </c>
       <c r="C3" t="n">
-        <v>48.25837395675769</v>
+        <v>46.65705761148741</v>
       </c>
       <c r="D3" t="n">
-        <v>154.5653277138217</v>
+        <v>170.2240541687499</v>
       </c>
       <c r="E3" t="n">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45019</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45026</v>
+        <v>45063</v>
       </c>
       <c r="B4" t="n">
-        <v>117.1583771860622</v>
+        <v>112.4796802332051</v>
       </c>
       <c r="C4" t="n">
-        <v>64.9835381574772</v>
+        <v>53.14249494801565</v>
       </c>
       <c r="D4" t="n">
-        <v>170.327974987928</v>
+        <v>176.4598211475135</v>
       </c>
       <c r="E4" t="n">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="B5" t="n">
-        <v>136.624758087388</v>
-      </c>
-      <c r="C5" t="n">
-        <v>79.14007076978915</v>
-      </c>
-      <c r="D5" t="n">
-        <v>196.8605508323223</v>
-      </c>
-      <c r="E5" t="n">
-        <v>190</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>45026</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="B6" t="n">
-        <v>144.3642521701417</v>
-      </c>
-      <c r="C6" t="n">
-        <v>87.92388186783934</v>
-      </c>
-      <c r="D6" t="n">
-        <v>201.9241338737828</v>
-      </c>
-      <c r="E6" t="n">
-        <v>113</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>45033</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45059</v>
-      </c>
-      <c r="B7" t="n">
-        <v>174.1878321810639</v>
-      </c>
-      <c r="C7" t="n">
-        <v>117.2740569262807</v>
-      </c>
-      <c r="D7" t="n">
-        <v>232.7450573597614</v>
-      </c>
-      <c r="E7" t="n">
-        <v>218</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45063</v>
-      </c>
-      <c r="B8" t="n">
-        <v>124.7555234376701</v>
-      </c>
-      <c r="C8" t="n">
-        <v>70.54599892130359</v>
-      </c>
-      <c r="D8" t="n">
-        <v>183.8802590837509</v>
-      </c>
-      <c r="E8" t="n">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="n">
         <v>45056</v>
       </c>
     </row>
@@ -622,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,105 +594,53 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1607.429285285594</v>
+        <v>11258.89637899698</v>
       </c>
       <c r="C2" t="n">
-        <v>40.09275851429524</v>
+        <v>106.1079468230207</v>
       </c>
       <c r="D2" t="n">
-        <v>40.09275851429524</v>
+        <v>106.1079468230207</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5075032723328512</v>
+        <v>0.4867337010230305</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5075032723328512</v>
+        <v>0.4867337010230305</v>
       </c>
       <c r="G2" t="n">
-        <v>0.404787724851658</v>
+        <v>0.6432888928433582</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1919.506048994618</v>
+        <v>2232.799740613124</v>
       </c>
       <c r="C3" t="n">
-        <v>43.81216781893608</v>
+        <v>47.25251041598873</v>
       </c>
       <c r="D3" t="n">
-        <v>43.81216781893608</v>
+        <v>42.17930464688711</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2009732468758536</v>
+        <v>0.7401364809752631</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2009732468758536</v>
+        <v>0.7401364809752631</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2234244115901537</v>
+        <v>0.4776840277528233</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>9137.853597814657</v>
-      </c>
-      <c r="C4" t="n">
-        <v>95.59212100280367</v>
-      </c>
-      <c r="D4" t="n">
-        <v>95.59212100280367</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4803624170995159</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4803624170995159</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6322065504364052</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4455.933132551805</v>
-      </c>
-      <c r="C5" t="n">
-        <v>66.75277621606314</v>
-      </c>
-      <c r="D5" t="n">
-        <v>62.8341600835904</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6353129353398677</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3588304485383538</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.5003237114747296</v>
-      </c>
-      <c r="H5" t="n">
         <v>0.5</v>
       </c>
     </row>

--- a/modelos/OBAOLE4423099/OBAOLE4423099_Sell Out_metricas.xlsx
+++ b/modelos/OBAOLE4423099/OBAOLE4423099_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>133.8789290605691</v>
       </c>
       <c r="C2" t="n">
-        <v>69.29066618137648</v>
+        <v>74.89760553459494</v>
       </c>
       <c r="D2" t="n">
-        <v>196.2002975015353</v>
+        <v>191.7437222023152</v>
       </c>
       <c r="E2" t="n">
         <v>113</v>
@@ -499,10 +499,10 @@
         <v>111.8920531769793</v>
       </c>
       <c r="C3" t="n">
-        <v>46.65705761148741</v>
+        <v>50.18820553680404</v>
       </c>
       <c r="D3" t="n">
-        <v>170.2240541687499</v>
+        <v>172.0251878118528</v>
       </c>
       <c r="E3" t="n">
         <v>218</v>
@@ -519,10 +519,10 @@
         <v>112.4796802332051</v>
       </c>
       <c r="C4" t="n">
-        <v>53.14249494801565</v>
+        <v>50.21278891479634</v>
       </c>
       <c r="D4" t="n">
-        <v>176.4598211475135</v>
+        <v>177.5723912973734</v>
       </c>
       <c r="E4" t="n">
         <v>49</v>
